--- a/JEpisodic_SMSC_100Trials_RawData.xlsx
+++ b/JEpisodic_SMSC_100Trials_RawData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DEGRADE 4 HR</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>PILFER 124 HR</t>
+  </si>
+  <si>
+    <t>SEM: .1872</t>
+  </si>
+  <si>
+    <t>SEM: .1778</t>
+  </si>
+  <si>
+    <t>SEM: .1253</t>
+  </si>
+  <si>
+    <t>SEM: .1201</t>
+  </si>
+  <si>
+    <t>SEM: .1505</t>
+  </si>
+  <si>
+    <t>SEM: .1937</t>
   </si>
 </sst>
 </file>
@@ -365,14 +383,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2422,9 +2442,29 @@
         <v>3.62</v>
       </c>
     </row>
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+      <c r="K103" t="s">
+        <v>10</v>
+      </c>
+      <c r="M103" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
